--- a/Codes/Transient Rod/results/Fig4.xlsx
+++ b/Codes/Transient Rod/results/Fig4.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>508.3481439602789</v>
+        <v>0.4409171140858488</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>508.0981442485124</v>
+        <v>0.440917117772525</v>
       </c>
       <c r="B3" t="n">
         <v>0.001</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>507.3481451128345</v>
+        <v>0.440917134406808</v>
       </c>
       <c r="B4" t="n">
         <v>0.002</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>506.0981465519602</v>
+        <v>0.4409171930550901</v>
       </c>
       <c r="B5" t="n">
         <v>0.003</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>504.348148563762</v>
+        <v>0.4409174011029583</v>
       </c>
       <c r="B6" t="n">
         <v>0.004</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>502.0981511452624</v>
+        <v>0.4409181546526418</v>
       </c>
       <c r="B7" t="n">
         <v>0.005</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>499.3481542926343</v>
+        <v>0.4409209300589209</v>
       </c>
       <c r="B8" t="n">
         <v>0.006</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>496.0981580011997</v>
+        <v>0.4409312809783563</v>
       </c>
       <c r="B9" t="n">
         <v>0.007</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>492.3481622654305</v>
+        <v>0.4409702540168517</v>
       </c>
       <c r="B10" t="n">
         <v>0.008</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>488.0981670789475</v>
+        <v>0.44111808774279</v>
       </c>
       <c r="B11" t="n">
         <v>0.009000000000000001</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>483.3481724345218</v>
+        <v>0.4416821923402958</v>
       </c>
       <c r="B12" t="n">
         <v>0.01</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>478.0981783240734</v>
+        <v>0.4438451557645065</v>
       </c>
       <c r="B13" t="n">
         <v>0.011</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>472.3481847386722</v>
+        <v>0.4521721176746907</v>
       </c>
       <c r="B14" t="n">
         <v>0.012</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>454.3482047540944</v>
+        <v>0.5136039786555743</v>
       </c>
       <c r="B15" t="n">
         <v>0.015</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>450.6816966952151</v>
+        <v>0.6777490315429636</v>
       </c>
       <c r="B16" t="n">
         <v>0.01585714285714286</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>446.0147560064683</v>
+        <v>1.312778974020495</v>
       </c>
       <c r="B17" t="n">
         <v>0.01671428571428571</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>441.5811626329447</v>
+        <v>2.742508983175351</v>
       </c>
       <c r="B18" t="n">
         <v>0.01757142857142857</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>437.3586930317325</v>
+        <v>5.832793604779968</v>
       </c>
       <c r="B19" t="n">
         <v>0.01842857142857143</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>433.3281541429172</v>
+        <v>12.46316789618189</v>
       </c>
       <c r="B20" t="n">
         <v>0.01928571428571429</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>429.472856349066</v>
+        <v>26.67761343445552</v>
       </c>
       <c r="B21" t="n">
         <v>0.02014285714285714</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>425.7781962348192</v>
+        <v>57.16628275521023</v>
       </c>
       <c r="B22" t="n">
         <v>0.021</v>
